--- a/common-poi/writeMapTest.xlsx
+++ b/common-poi/writeMapTest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>测试名单</t>
   </si>
@@ -420,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -453,6 +453,42 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -479,26 +515,26 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="23" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="23" t="n">
         <v>33.0</v>
       </c>
     </row>
